--- a/crawler_learn/豆瓣电影.xlsx
+++ b/crawler_learn/豆瓣电影.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,567 +442,862 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>score</t>
+          <t>duration</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>quote</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
+          <t>time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>肖申克的救赎</t>
+          <t>模仿游戏 The Imitation Game</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>114分钟</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>希望让人自由。</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2110721</t>
+          <t>2015-07-21(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>霸王别姬</t>
+          <t>黑天鹅 Black Swan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9.6</t>
+          <t>108分钟</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>风华绝代。</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1564573</t>
+          <t>2010-09-01(威尼斯电影节)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>阿甘正传</t>
+          <t>头脑特工队 Inside Out</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>95分钟</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>一部美国近现代史。</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1595013</t>
+          <t>2015-10-06(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>这个杀手不太冷</t>
+          <t>新世界 신세계</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>134分钟</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>怪蜀黍和小萝莉不得不说的故事。</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1782672</t>
+          <t>2013-02-21(韩国)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>泰坦尼克号</t>
+          <t>未麻的部屋 Perfect Blue</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>81 分钟</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">失去的才是永恒的。 </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1547945</t>
+          <t>1997-07(加拿大奇幻电影节)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>美丽人生</t>
+          <t>你看起来好像很好吃 おまえうまそうだな</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>90分钟</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>最美的谎言。</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>995214</t>
+          <t>2010-10-16(日本)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>千与千寻</t>
+          <t>海街日记 海街diary</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>127分钟</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1659276</t>
+          <t>2015-05-14(戛纳电影节)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>辛德勒的名单</t>
+          <t>雨人 Rain Man</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9.5</t>
+          <t>133分钟</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拯救一个人，就是拯救整个世界。</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>811221</t>
+          <t>1988-12-16(美国)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>盗梦空间</t>
+          <t>无敌破坏王 Wreck-It Ralph</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>101分钟</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺兰给了我们一场无法盗取的梦。</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1521404</t>
+          <t>2012-11-06(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>忠犬八公的故事</t>
+          <t>冰川时代 Ice Age</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>81 分钟</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永远都不能忘记你所爱的人。</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1058536</t>
+          <t>2002-03-15(美国)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>海上钢琴师</t>
+          <t>恋恋笔记本 The Notebook</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>123分钟</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1267476</t>
+          <t>2004-06-25(美国)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>楚门的世界</t>
+          <t>惊魂记 Psycho</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>109分钟</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1142630</t>
+          <t>1960-06-16(纽约首映)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>三傻大闹宝莱坞</t>
+          <t>二十二</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>99分钟(公映版)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>英俊版憨豆，高情商版谢耳朵。</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1411545</t>
+          <t>2017-08-14(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>星际穿越</t>
+          <t>海边的曼彻斯特 Manchester by the Sea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>137分钟</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>爱是一种力量，让我们超越时空感知它的存在。</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1195787</t>
+          <t>2017-08-25(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>机器人总动员</t>
+          <t>奇迹男孩 Wonder</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>113分钟</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>小瓦力，大人生。</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>999301</t>
+          <t>2018-01-19(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>放牛班的春天</t>
+          <t>恐怖游轮 Triangle</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>99 分钟</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>982242</t>
+          <t>2009-10-16(英国)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>大话西游之大圣娶亲</t>
+          <t>房间 Room</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>118分钟</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>一生所爱。</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1122049</t>
+          <t>2015-09-04(特柳赖德电影节)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>熔炉</t>
+          <t>小偷家族 万引き家族</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>117分钟(中国大陆)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>689260</t>
+          <t>2018-08-03(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>疯狂动物城</t>
+          <t>虎口脱险 La grande vadrouille</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>132分钟</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1347771</t>
+          <t>1966-12-08(法国)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>无间道</t>
+          <t>魔女宅急便 魔女の宅急便</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>103分钟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>香港电影史上永不过时的杰作。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>913548</t>
+          <t>1989-07-29(日本)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>龙猫</t>
+          <t>绿里奇迹 The Green Mile</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>189 分钟</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>943179</t>
+          <t>1999-12-10(美国)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>教父</t>
+          <t>雨中曲 Singin' in the Rain</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>103分钟</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>689118</t>
+          <t>1952-04-11(美国)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>当幸福来敲门</t>
+          <t>疯狂的石头</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>106 分钟(香港)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">平民励志片。 </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1136765</t>
+          <t>2006-06-30(中国大陆)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>怦然心动</t>
+          <t>爱在午夜降临前 Before Midnight</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9.1</t>
+          <t>109分钟</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>真正的幸福是来自内心深处。</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1317969</t>
+          <t>2013-06-14(美国)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>触不可及</t>
+          <t>人工智能 Artificial Intelligence: AI</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>146分钟</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>满满温情的高雅喜剧。</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>735151</t>
+          <t>2001-06-29(美国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>罗生门 羅生門</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>88分钟</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1950-08-26(日本)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>终结者2：审判日 Terminator 2: Judgment Day</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>137分钟</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1991-07-03(美国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>初恋这件小事 สิ่งเล็กเล็กที่เรียกว่า...รัก</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>118分钟(泰国)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2012-06-05(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2001太空漫游 2001: A Space Odyssey</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>149分钟</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1968-04-02(华盛顿首映)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>85分钟(中国大陆)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2004-10-01(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>魂断蓝桥 Waterloo Bridge</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>108分钟</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1940-05-17(美国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>海洋 Océans</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>104分钟(法国)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2011-08-12(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>城市之光 City Lights</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>87 分钟</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1931-01-30(洛杉矶首映)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>燃情岁月 Legends of the Fall</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>133分钟</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1994-12-16(美国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件 牯嶺街少年殺人事件</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>237分钟(导演剪辑版)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1991-07-27(中国台湾)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>穿越时空的少女 時をかける少女</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>98分钟</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2006-07-15(日本)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>色，戒</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>158分钟</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2007-09-24(中国台湾)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>新龙门客栈 新龍門客棧</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>88分钟</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1992-08-27(中国香港)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>99分钟</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1993-11-04(中国香港)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>无耻混蛋 Inglourious Basterds</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>153分钟</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2009-05-20(戛纳电影节)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>源代码 Source Code</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>93分钟</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2011-08-30(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>完美陌生人 Perfetti sconosciuti</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>97分钟</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2018-05-25(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>阿飞正传 阿飛正傳</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>94分钟</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1990-12-15(中国香港)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>遗愿清单 The Bucket List</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>97 分钟</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2007-12-25(多伦多电影节)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>102分钟</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2017-10-13(中国台湾)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>血钻 Blood Diamond</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>143 分钟</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2006-12-08(美国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>九品芝麻官</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>108分钟</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1994-03-31(中国香港)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>谍影重重2 The Bourne Supremacy</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>108分钟</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2004-11-14(中国大陆)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>香水 Perfume: The Story of a Murderer</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>147分钟</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2006-09-07(德国)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>地球上的星星 Taare Zameen Par</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>165分钟</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2007-12-21(印度)</t>
         </is>
       </c>
     </row>
